--- a/Bill of Material v.3.xlsx
+++ b/Bill of Material v.3.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Steel Bridge/Users/metalmachine/Speed Demon/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="19420" windowHeight="11020" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="51120" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="136">
   <si>
     <t>Bill Of Material</t>
   </si>
@@ -120,18 +125,9 @@
     <t>Six 5-way tactile switches.</t>
   </si>
   <si>
-    <t>Prototyping/Unique IC project parts</t>
-  </si>
-  <si>
-    <t>mixed</t>
-  </si>
-  <si>
     <t>Digikey</t>
   </si>
   <si>
-    <t>Includes all non-MCU IC/MOS parts for prototyping AND project</t>
-  </si>
-  <si>
     <t>ST-Link V2 Programmer/Emulator</t>
   </si>
   <si>
@@ -169,12 +165,6 @@
   </si>
   <si>
     <t>OSH Park</t>
-  </si>
-  <si>
-    <t>Remainder of HW components</t>
-  </si>
-  <si>
-    <t>Shipping incl</t>
   </si>
   <si>
     <t>Solder stencil + solder paste</t>
@@ -450,11 +440,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -490,29 +480,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -566,21 +543,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -596,11 +558,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -642,23 +603,18 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -929,21 +885,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.6640625" style="7" customWidth="1"/>
     <col min="2" max="3" width="14.33203125" style="3" customWidth="1"/>
@@ -956,7 +912,7 @@
     <col min="10" max="16384" width="10.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -967,11 +923,11 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="I1" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -979,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -991,14 +947,14 @@
         <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I2" s="9">
-        <f>SUM(D3:D98)/4</f>
-        <v>141.99250000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
+        <f>SUM(D3:D96)/4</f>
+        <v>106.9525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1015,13 +971,13 @@
         <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1036,16 +992,16 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="I4" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1067,12 +1023,12 @@
       <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="22">
-        <f>SUM(C3:C61)</f>
-        <v>97.871999999999971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
+      <c r="I5" s="20">
+        <f>SUM(C3:C59)</f>
+        <v>62.832000000000015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1094,9 +1050,9 @@
       <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1118,9 +1074,9 @@
       <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1139,7 +1095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1160,7 +1116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1177,13 +1133,13 @@
         <v>27</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -1200,13 +1156,13 @@
         <v>27</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1223,161 +1179,157 @@
         <v>30</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6">
-        <v>11.29</v>
-      </c>
-      <c r="D13" s="6">
-        <v>45.16</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="12">
+        <v>15.53</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="G14" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="12">
-        <v>15.53</v>
+        <v>15.24</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B16" s="12">
+        <v>3</v>
+      </c>
+      <c r="C16" s="12">
+        <v>4.16</v>
+      </c>
       <c r="D16" s="12">
-        <v>15.24</v>
+        <v>12.48</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="12">
-        <v>3</v>
-      </c>
-      <c r="C17" s="12">
-        <v>4.16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C17" s="12"/>
       <c r="D17" s="12">
-        <v>12.48</v>
+        <v>15.48</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="12">
         <v>1</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12">
-        <v>15.48</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="B19" s="5">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6.93</v>
+      </c>
+      <c r="D19" s="5">
+        <v>27.75</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="F19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="5">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5">
-        <v>6.93</v>
-      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="5">
-        <v>27.75</v>
+        <v>47.49</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>48</v>
@@ -1385,307 +1337,317 @@
       <c r="F20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" s="20" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="19" t="s">
+      <c r="G20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19">
-        <v>23.75</v>
-      </c>
-      <c r="D21" s="19">
-        <v>95</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickTop="1">
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.5</v>
+      </c>
       <c r="D22" s="5">
-        <v>47.49</v>
+        <v>10</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>57</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="15">
+        <v>10</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="D23" s="16">
+        <v>13.13</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A24" s="6" t="s">
+      <c r="G23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="15">
+        <v>10</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0.309</v>
+      </c>
+      <c r="D24" s="16">
+        <v>3.09</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="5">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="D24" s="5">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A25" s="15" t="s">
+      <c r="B25" s="15">
+        <v>7</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.62</v>
+      </c>
+      <c r="D25" s="16">
+        <v>4.34</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="B25" s="15">
-        <v>10</v>
-      </c>
-      <c r="C25" s="13">
-        <v>1.3129999999999999</v>
-      </c>
-      <c r="D25" s="16">
-        <v>13.13</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="15">
         <v>10</v>
       </c>
       <c r="C26" s="13">
-        <v>0.309</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="D26" s="16">
-        <v>3.09</v>
+        <v>2.61</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="15">
+        <v>10</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="D27" s="16">
+        <v>5.67</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" s="15">
-        <v>7</v>
-      </c>
-      <c r="C27" s="13">
-        <v>0.62</v>
-      </c>
-      <c r="D27" s="16">
-        <v>4.34</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="15">
+        <v>6</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D28" s="16">
+        <v>6.96</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="B28" s="15">
-        <v>10</v>
-      </c>
-      <c r="C28" s="13">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="D28" s="16">
-        <v>2.61</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="15">
         <v>10</v>
       </c>
       <c r="C29" s="13">
-        <v>0.56699999999999995</v>
+        <v>0.495</v>
       </c>
       <c r="D29" s="16">
-        <v>5.67</v>
+        <v>4.95</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="15">
+        <v>6</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D30" s="16">
+        <v>3.36</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="B30" s="15">
-        <v>6</v>
-      </c>
-      <c r="C30" s="13">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D30" s="16">
-        <v>6.96</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="15">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="B31" s="15">
-        <v>10</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0.495</v>
-      </c>
-      <c r="D31" s="16">
-        <v>4.95</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="B32" s="15">
-        <v>6</v>
-      </c>
-      <c r="C32" s="13">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D32" s="16">
-        <v>3.36</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="21">
+    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="15">
-        <v>1</v>
+      <c r="B33" s="17">
+        <v>100</v>
       </c>
       <c r="C33" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="D33" s="16">
-        <v>0.45</v>
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="D33" s="18">
+        <v>3.05</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>6</v>
@@ -1693,24 +1655,24 @@
       <c r="G33" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" ht="21">
+    <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="15">
-        <v>1</v>
+      <c r="B34" s="17">
+        <v>35</v>
       </c>
       <c r="C34" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="D34" s="16">
-        <v>0.6</v>
+        <v>0.107</v>
+      </c>
+      <c r="D34" s="18">
+        <v>3.75</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>6</v>
@@ -1718,387 +1680,387 @@
       <c r="G34" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" ht="21">
+    <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="17">
         <v>100</v>
       </c>
       <c r="C35" s="13">
-        <v>3.0499999999999999E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="D35" s="18">
-        <v>3.05</v>
+        <v>0.76</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:9" ht="21">
+    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="17">
+        <v>100</v>
+      </c>
+      <c r="C36" s="13">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="B36" s="17">
-        <v>35</v>
-      </c>
-      <c r="C36" s="13">
-        <v>0.107</v>
-      </c>
-      <c r="D36" s="18">
-        <v>3.75</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9" ht="21">
+    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="17">
+        <v>25</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.221</v>
+      </c>
+      <c r="D37" s="18">
+        <v>5.53</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="B37" s="17">
-        <v>100</v>
-      </c>
-      <c r="C37" s="13">
-        <v>7.6E-3</v>
-      </c>
-      <c r="D37" s="18">
-        <v>0.76</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:9" ht="21">
+    <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="17">
+        <v>20</v>
+      </c>
+      <c r="C38" s="13">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D38" s="18">
+        <v>1.66</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="B38" s="17">
-        <v>100</v>
-      </c>
-      <c r="C38" s="13">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D38" s="18">
-        <v>0.88</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="1:9" ht="21">
+    <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="17">
+        <v>20</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D39" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="B39" s="17">
-        <v>25</v>
-      </c>
-      <c r="C39" s="13">
-        <v>0.221</v>
-      </c>
-      <c r="D39" s="18">
-        <v>5.53</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9" ht="21">
+    <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="17">
+        <v>16</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D40" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="B40" s="17">
-        <v>20</v>
-      </c>
-      <c r="C40" s="13">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="D40" s="18">
-        <v>1.66</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:9" ht="21">
+    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="17">
+        <v>16</v>
+      </c>
+      <c r="C41" s="13">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D41" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="B41" s="17">
-        <v>20</v>
-      </c>
-      <c r="C41" s="13">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="D41" s="18">
-        <v>0.34</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:9" ht="21">
+    <row r="42" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="17">
+        <v>100</v>
+      </c>
+      <c r="C42" s="13">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="D42" s="18">
+        <v>0.71</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="B42" s="17">
-        <v>16</v>
-      </c>
-      <c r="C42" s="13">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="D42" s="18">
-        <v>2.1</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" ht="21">
+    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="17">
+        <v>10</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D43" s="18">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="B43" s="17">
-        <v>16</v>
-      </c>
-      <c r="C43" s="13">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="D43" s="18">
-        <v>0.35</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9" ht="21">
+    <row r="44" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="17">
+        <v>10</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D44" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="B44" s="17">
-        <v>100</v>
-      </c>
-      <c r="C44" s="13">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="D44" s="18">
-        <v>0.71</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" ht="21">
+    <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" s="17">
         <v>10</v>
       </c>
       <c r="C45" s="13">
-        <v>0.41399999999999998</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D45" s="18">
-        <v>4.1399999999999997</v>
+        <v>0.19</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="1:9" ht="21">
+    <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" s="17">
         <v>10</v>
       </c>
       <c r="C46" s="13">
-        <v>1.7000000000000001E-2</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="D46" s="18">
-        <v>0.17</v>
+        <v>2.04</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="1:9" ht="21">
+    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="17">
         <v>10</v>
       </c>
       <c r="C47" s="13">
-        <v>1.9E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D47" s="18">
-        <v>0.19</v>
+        <v>0.45</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="1:9" ht="21">
+    <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" s="17">
         <v>10</v>
       </c>
       <c r="C48" s="13">
-        <v>0.20399999999999999</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D48" s="18">
-        <v>2.04</v>
+        <v>0.17</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="11"/>
     </row>
-    <row r="49" spans="1:9" ht="21">
+    <row r="49" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" s="17">
         <v>10</v>
       </c>
       <c r="C49" s="13">
-        <v>4.4999999999999998E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D49" s="18">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="1:9" ht="21">
+    <row r="50" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" s="17">
         <v>10</v>
@@ -2110,291 +2072,241 @@
         <v>0.17</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="11"/>
     </row>
-    <row r="51" spans="1:9" ht="21">
+    <row r="51" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" s="17">
         <v>10</v>
       </c>
       <c r="C51" s="13">
-        <v>1.9E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D51" s="18">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:9" ht="21">
+    <row r="52" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="17">
+        <v>16</v>
+      </c>
+      <c r="C52" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="B52" s="17">
-        <v>10</v>
-      </c>
-      <c r="C52" s="13">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="D52" s="18">
-        <v>0.17</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="11"/>
     </row>
-    <row r="53" spans="1:9" ht="21">
+    <row r="53" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="17">
+        <v>3</v>
+      </c>
+      <c r="C53" s="13">
+        <v>12.67</v>
+      </c>
+      <c r="D53" s="18">
+        <v>38.01</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="B53" s="17">
-        <v>10</v>
-      </c>
-      <c r="C53" s="13">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="D53" s="18">
-        <v>0.17</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9" ht="21">
+    <row r="54" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="17">
+        <v>10</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D54" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="B54" s="17">
-        <v>16</v>
-      </c>
-      <c r="C54" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="D54" s="18">
-        <v>2</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:9" ht="21">
+    <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="17">
+        <v>10</v>
+      </c>
+      <c r="C55" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B55" s="17">
-        <v>3</v>
-      </c>
-      <c r="C55" s="13">
-        <v>12.67</v>
-      </c>
-      <c r="D55" s="18">
-        <v>38.01</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="11"/>
     </row>
-    <row r="56" spans="1:9" ht="21">
+    <row r="56" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="17">
         <v>10</v>
       </c>
       <c r="C56" s="13">
-        <v>1.7000000000000001E-2</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="D56" s="18">
-        <v>0.17</v>
+        <v>3.63</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="11"/>
     </row>
-    <row r="57" spans="1:9" ht="21">
+    <row r="57" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" s="17">
         <v>10</v>
       </c>
       <c r="C57" s="13">
-        <v>0.1</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="D57" s="18">
-        <v>1</v>
+        <v>2.81</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="11"/>
     </row>
-    <row r="58" spans="1:9" ht="21">
+    <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="17">
+        <v>5</v>
+      </c>
+      <c r="C58" s="13">
+        <v>2.54</v>
+      </c>
+      <c r="D58" s="18">
+        <v>12.7</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="B58" s="17">
-        <v>10</v>
-      </c>
-      <c r="C58" s="13">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="D58" s="18">
-        <v>3.63</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>131</v>
       </c>
       <c r="H58" s="14"/>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="1:9" ht="21">
+    <row r="59" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59" s="17">
         <v>10</v>
       </c>
       <c r="C59" s="13">
-        <v>0.28100000000000003</v>
+        <v>0.187</v>
       </c>
       <c r="D59" s="18">
-        <v>2.81</v>
+        <v>1.87</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H59" s="14"/>
       <c r="I59" s="11"/>
-    </row>
-    <row r="60" spans="1:9" ht="21">
-      <c r="A60" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="17">
-        <v>5</v>
-      </c>
-      <c r="C60" s="13">
-        <v>2.54</v>
-      </c>
-      <c r="D60" s="18">
-        <v>12.7</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="11"/>
-    </row>
-    <row r="61" spans="1:9" ht="21">
-      <c r="A61" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" s="17">
-        <v>10</v>
-      </c>
-      <c r="C61" s="13">
-        <v>0.187</v>
-      </c>
-      <c r="D61" s="18">
-        <v>1.87</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="11"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Bill of Material v.3.xlsx
+++ b/Bill of Material v.3.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Steel Bridge/Users/metalmachine/Speed Demon/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="51120" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="19420" windowHeight="11020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="139">
   <si>
     <t>Bill Of Material</t>
   </si>
@@ -435,16 +430,25 @@
   </si>
   <si>
     <t>COST OF SINGLE UNIT</t>
+  </si>
+  <si>
+    <t>Zach spent</t>
+  </si>
+  <si>
+    <t>Nathan spent</t>
+  </si>
+  <si>
+    <t>Andrew spent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -606,13 +610,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,21 +889,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="48.6640625" style="7" customWidth="1"/>
     <col min="2" max="3" width="14.33203125" style="3" customWidth="1"/>
@@ -912,22 +916,22 @@
     <col min="10" max="16384" width="10.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="I1" s="8" t="s">
         <v>50</v>
       </c>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -954,7 +958,7 @@
         <v>106.9525</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -977,7 +981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +1005,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1032,7 @@
         <v>62.832000000000015</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1052,7 +1056,7 @@
       </c>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1074,9 +1078,11 @@
       <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1094,8 +1100,12 @@
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="24">
+        <f>SUM(D5:D9,D13,D19:D21,D23:D59)</f>
+        <v>274.33999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1138,8 +1148,11 @@
       <c r="G10" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -1161,8 +1174,12 @@
       <c r="G11" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="2">
+        <f>SUM(D3:D4,D10:D12,D22)</f>
+        <v>78.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1185,7 +1202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -1201,8 +1218,11 @@
         <v>6</v>
       </c>
       <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>33</v>
       </c>
@@ -1220,8 +1240,12 @@
       <c r="G14" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <f>SUM(D14:D18)</f>
+        <v>75.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
@@ -1240,7 +1264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
@@ -1261,7 +1285,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>38</v>
       </c>
@@ -1280,7 +1304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>39</v>
       </c>
@@ -1299,7 +1323,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
@@ -1320,7 +1344,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -1341,7 +1365,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
@@ -1360,7 +1384,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -1383,7 +1407,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>58</v>
       </c>
@@ -1408,7 +1432,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A24" s="15" t="s">
         <v>60</v>
       </c>
@@ -1433,7 +1457,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A25" s="15" t="s">
         <v>62</v>
       </c>
@@ -1458,7 +1482,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>64</v>
       </c>
@@ -1483,7 +1507,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>66</v>
       </c>
@@ -1508,7 +1532,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
@@ -1533,7 +1557,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>70</v>
       </c>
@@ -1558,7 +1582,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>72</v>
       </c>
@@ -1583,7 +1607,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="21">
       <c r="A31" s="15" t="s">
         <v>74</v>
       </c>
@@ -1608,7 +1632,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="21">
       <c r="A32" s="15" t="s">
         <v>76</v>
       </c>
@@ -1633,7 +1657,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="21">
       <c r="A33" s="15" t="s">
         <v>79</v>
       </c>
@@ -1658,7 +1682,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="21">
       <c r="A34" s="15" t="s">
         <v>81</v>
       </c>
@@ -1683,7 +1707,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="21">
       <c r="A35" s="15" t="s">
         <v>83</v>
       </c>
@@ -1708,7 +1732,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="21">
       <c r="A36" s="15" t="s">
         <v>85</v>
       </c>
@@ -1733,7 +1757,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="21">
       <c r="A37" s="15" t="s">
         <v>87</v>
       </c>
@@ -1758,7 +1782,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="21">
       <c r="A38" s="15" t="s">
         <v>89</v>
       </c>
@@ -1783,7 +1807,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="21">
       <c r="A39" s="15" t="s">
         <v>91</v>
       </c>
@@ -1808,7 +1832,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="21">
       <c r="A40" s="15" t="s">
         <v>93</v>
       </c>
@@ -1833,7 +1857,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="21">
       <c r="A41" s="15" t="s">
         <v>95</v>
       </c>
@@ -1858,7 +1882,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="21">
       <c r="A42" s="15" t="s">
         <v>97</v>
       </c>
@@ -1883,7 +1907,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="21">
       <c r="A43" s="15" t="s">
         <v>99</v>
       </c>
@@ -1908,7 +1932,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="21">
       <c r="A44" s="15" t="s">
         <v>101</v>
       </c>
@@ -1933,7 +1957,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="21">
       <c r="A45" s="15" t="s">
         <v>103</v>
       </c>
@@ -1958,7 +1982,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="21">
       <c r="A46" s="15" t="s">
         <v>105</v>
       </c>
@@ -1983,7 +2007,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="21">
       <c r="A47" s="15" t="s">
         <v>107</v>
       </c>
@@ -2008,7 +2032,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="21">
       <c r="A48" s="15" t="s">
         <v>109</v>
       </c>
@@ -2033,7 +2057,7 @@
       <c r="H48" s="14"/>
       <c r="I48" s="11"/>
     </row>
-    <row r="49" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="21">
       <c r="A49" s="15" t="s">
         <v>111</v>
       </c>
@@ -2058,7 +2082,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="21">
       <c r="A50" s="15" t="s">
         <v>113</v>
       </c>
@@ -2083,7 +2107,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="11"/>
     </row>
-    <row r="51" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="21">
       <c r="A51" s="15" t="s">
         <v>115</v>
       </c>
@@ -2108,7 +2132,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="21">
       <c r="A52" s="15" t="s">
         <v>117</v>
       </c>
@@ -2133,7 +2157,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="11"/>
     </row>
-    <row r="53" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="21">
       <c r="A53" s="15" t="s">
         <v>119</v>
       </c>
@@ -2158,7 +2182,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="21">
       <c r="A54" s="15" t="s">
         <v>121</v>
       </c>
@@ -2183,7 +2207,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="21">
       <c r="A55" s="15" t="s">
         <v>123</v>
       </c>
@@ -2208,7 +2232,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="11"/>
     </row>
-    <row r="56" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="21">
       <c r="A56" s="15" t="s">
         <v>125</v>
       </c>
@@ -2233,7 +2257,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="11"/>
     </row>
-    <row r="57" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="21">
       <c r="A57" s="15" t="s">
         <v>127</v>
       </c>
@@ -2258,7 +2282,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="11"/>
     </row>
-    <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="21">
       <c r="A58" s="15" t="s">
         <v>129</v>
       </c>
@@ -2283,7 +2307,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="21">
       <c r="A59" s="15" t="s">
         <v>131</v>
       </c>

--- a/Bill of Material v.3.xlsx
+++ b/Bill of Material v.3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>Bill Of Material</t>
   </si>
@@ -565,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,13 +610,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -917,15 +920,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="I1" s="8" t="s">
         <v>50</v>
       </c>
@@ -955,7 +958,7 @@
       </c>
       <c r="I2" s="9">
         <f>SUM(D3:D96)/4</f>
-        <v>106.9525</v>
+        <v>109.16500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
@@ -1100,7 +1103,7 @@
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="22">
         <f>SUM(D5:D9,D13,D19:D21,D23:D59)</f>
         <v>274.33999999999992</v>
       </c>
@@ -1241,8 +1244,8 @@
         <v>43</v>
       </c>
       <c r="I14" s="2">
-        <f>SUM(D14:D18)</f>
-        <v>75.13</v>
+        <f>SUM(D14:D18,D60)</f>
+        <v>83.97999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
@@ -2331,6 +2334,22 @@
       </c>
       <c r="H59" s="14"/>
       <c r="I59" s="11"/>
+    </row>
+    <row r="60" spans="1:9" ht="21">
+      <c r="A60" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="25">
+        <v>1</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25">
+        <v>8.85</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
